--- a/QALegend/src/main/resources/TestData.xlsx
+++ b/QALegend/src/main/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\Project_QALegend\QALegend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F8371C-F6C0-4831-B58C-025AB8011304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCD6C6A-9EA4-4826-BB37-1ABA4399ADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>Welcome Renato,</t>
   </si>
   <si>
-    <t>Welcome XYZ,</t>
-  </si>
-  <si>
     <t>Claude_Olson</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>No matching records found</t>
+  </si>
+  <si>
+    <t>Welcome admin,</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
         <v>123456</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -535,24 +535,24 @@
         <v>123456</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13B6E53-289D-42E4-9B6D-4FBB8021042A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,10 +602,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -710,10 +710,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/QALegend/src/main/resources/TestData.xlsx
+++ b/QALegend/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\Project_QALegend\QALegend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCD6C6A-9EA4-4826-BB37-1ABA4399ADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FC8555-41FD-4506-B54B-EEB5E6112536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>pqr</t>
-  </si>
-  <si>
-    <t>XYZ</t>
   </si>
   <si>
     <t>ClaudeOlson@gmail.com</t>
@@ -461,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -485,7 +482,7 @@
         <v>123456</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -538,21 +535,21 @@
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -702,15 +699,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAADB41-76CA-4541-A0A8-FCA6330A5C26}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
